--- a/MQTT Teste Ack Cliente - 1.xlsx
+++ b/MQTT Teste Ack Cliente - 1.xlsx
@@ -379,13 +379,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.3982941176470589</v>
+        <v>0.9569504198320672</v>
       </c>
       <c r="B2">
-        <v>2.588235294117647</v>
+        <v>40.58072770891633</v>
       </c>
       <c r="C2">
-        <v>18.5794117647059</v>
+        <v>32.11148340663788</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -393,13 +393,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.39237</v>
+        <v>0.8641672669067627</v>
       </c>
       <c r="B3">
-        <v>2.6275</v>
+        <v>37.68067226890763</v>
       </c>
       <c r="C3">
-        <v>18.57289999999999</v>
+        <v>32.132989195679</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -407,13 +407,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.417078431372549</v>
+        <v>0.8609760095961615</v>
       </c>
       <c r="B4">
-        <v>2.75</v>
+        <v>37.90091963214703</v>
       </c>
       <c r="C4">
-        <v>18.56098039215684</v>
+        <v>32.12521391443492</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -421,13 +421,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.38911</v>
+        <v>0.8596042416966786</v>
       </c>
       <c r="B5">
-        <v>2.75</v>
+        <v>37.72849139655856</v>
       </c>
       <c r="C5">
-        <v>18.56049999999996</v>
+        <v>32.1318607442984</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -435,13 +435,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.4001960784313726</v>
+        <v>0.8641263494602158</v>
       </c>
       <c r="B6">
-        <v>2.75</v>
+        <v>37.79596161535391</v>
       </c>
       <c r="C6">
-        <v>18.56019607843135</v>
+        <v>32.13301079568252</v>
       </c>
       <c r="D6">
         <v>8</v>
@@ -449,13 +449,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.39189</v>
+        <v>0.8499383753501401</v>
       </c>
       <c r="B7">
-        <v>2.73</v>
+        <v>37.95118047218885</v>
       </c>
       <c r="C7">
-        <v>18.56119999999996</v>
+        <v>32.13607042817213</v>
       </c>
       <c r="D7">
         <v>8</v>
@@ -463,13 +463,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.4060392156862745</v>
+        <v>0.8573326669332266</v>
       </c>
       <c r="B8">
-        <v>2.71078431372549</v>
+        <v>37.88640543782481</v>
       </c>
       <c r="C8">
-        <v>18.55862745098037</v>
+        <v>32.13528188724583</v>
       </c>
       <c r="D8">
         <v>16</v>
@@ -477,13 +477,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.39703</v>
+        <v>0.8628495398159265</v>
       </c>
       <c r="B9">
-        <v>2.73</v>
+        <v>37.94009603841528</v>
       </c>
       <c r="C9">
-        <v>18.55949999999996</v>
+        <v>32.13474989996075</v>
       </c>
       <c r="D9">
         <v>16</v>
@@ -491,13 +491,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.3992745098039215</v>
+        <v>0.8555037984806079</v>
       </c>
       <c r="B10">
-        <v>2.75</v>
+        <v>37.8864054378248</v>
       </c>
       <c r="C10">
-        <v>18.56156862745097</v>
+        <v>32.13471811275571</v>
       </c>
       <c r="D10">
         <v>32</v>
@@ -505,13 +505,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.40138</v>
+        <v>0.8578399359743898</v>
       </c>
       <c r="B11">
-        <v>2.715</v>
+        <v>37.92360944377747</v>
       </c>
       <c r="C11">
-        <v>18.56129999999997</v>
+        <v>32.13474589836022</v>
       </c>
       <c r="D11">
         <v>32</v>
@@ -519,13 +519,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>0.4057450980392157</v>
+        <v>0.8600111955217913</v>
       </c>
       <c r="B12">
-        <v>2.5</v>
+        <v>37.85141943222703</v>
       </c>
       <c r="C12">
-        <v>18.56156862745096</v>
+        <v>32.14276689324362</v>
       </c>
       <c r="D12">
         <v>64</v>
@@ -533,13 +533,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>0.39737</v>
+        <v>0.8706778711484594</v>
       </c>
       <c r="B13">
-        <v>2.5</v>
+        <v>37.94309723889565</v>
       </c>
       <c r="C13">
-        <v>18.56169999999997</v>
+        <v>32.13986394557905</v>
       </c>
       <c r="D13">
         <v>64</v>
@@ -547,13 +547,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>0.4164705882352941</v>
+        <v>0.8571031587365054</v>
       </c>
       <c r="B14">
-        <v>2.5</v>
+        <v>38.09308276689312</v>
       </c>
       <c r="C14">
-        <v>18.56039215686272</v>
+        <v>32.15947620951723</v>
       </c>
       <c r="D14">
         <v>128</v>
@@ -561,13 +561,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>0.41727</v>
+        <v>0.8684409763905564</v>
       </c>
       <c r="B15">
-        <v>2.4075</v>
+        <v>38.08623449379743</v>
       </c>
       <c r="C15">
-        <v>18.56149999999996</v>
+        <v>32.16062024810018</v>
       </c>
       <c r="D15">
         <v>128</v>
@@ -575,13 +575,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>0.4232156862745098</v>
+        <v>0.8654870051979209</v>
       </c>
       <c r="B16">
-        <v>2.367647058823529</v>
+        <v>38.21179528188721</v>
       </c>
       <c r="C16">
-        <v>18.56039215686272</v>
+        <v>32.16879248300776</v>
       </c>
       <c r="D16">
         <v>256</v>
@@ -589,13 +589,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>0.41465</v>
+        <v>0.8631760704281713</v>
       </c>
       <c r="B17">
-        <v>2.35</v>
+        <v>38.09971988795506</v>
       </c>
       <c r="C17">
-        <v>18.56019999999996</v>
+        <v>32.16138855542314</v>
       </c>
       <c r="D17">
         <v>256</v>
@@ -603,13 +603,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>0.4015882352941176</v>
+        <v>0.8916301479408235</v>
       </c>
       <c r="B18">
-        <v>2.5</v>
+        <v>38.13018792483</v>
       </c>
       <c r="C18">
-        <v>18.55921568627449</v>
+        <v>32.17670531787386</v>
       </c>
       <c r="D18">
         <v>512</v>
@@ -617,13 +617,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>0.38682</v>
+        <v>0.8847787114845937</v>
       </c>
       <c r="B19">
-        <v>2.39</v>
+        <v>38.19795918367335</v>
       </c>
       <c r="C19">
-        <v>18.56499999999996</v>
+        <v>32.18478591436674</v>
       </c>
       <c r="D19">
         <v>512</v>
@@ -631,13 +631,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>0.4345882352941176</v>
+        <v>0.9017301079568174</v>
       </c>
       <c r="B20">
-        <v>2.25</v>
+        <v>38.30139944022383</v>
       </c>
       <c r="C20">
-        <v>18.56117647058823</v>
+        <v>32.18017992802989</v>
       </c>
       <c r="D20">
         <v>1024</v>
@@ -645,13 +645,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>0.41333</v>
+        <v>0.8733373349339735</v>
       </c>
       <c r="B21">
-        <v>2.25</v>
+        <v>38.21300520208068</v>
       </c>
       <c r="C21">
-        <v>18.56099999999997</v>
+        <v>32.18922368947675</v>
       </c>
       <c r="D21">
         <v>1024</v>
@@ -659,13 +659,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>0.4140588235294118</v>
+        <v>0.9255857656937226</v>
       </c>
       <c r="B22">
-        <v>2.25</v>
+        <v>38.94170331867247</v>
       </c>
       <c r="C22">
-        <v>18.56509803921568</v>
+        <v>32.20428228708591</v>
       </c>
       <c r="D22">
         <v>2048</v>
@@ -673,13 +673,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>0.41623</v>
+        <v>0.9302525010004001</v>
       </c>
       <c r="B23">
-        <v>2.25</v>
+        <v>38.88399359743892</v>
       </c>
       <c r="C23">
-        <v>18.56489999999997</v>
+        <v>32.20212484994084</v>
       </c>
       <c r="D23">
         <v>2048</v>
@@ -687,13 +687,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>0.4206470588235294</v>
+        <v>0.9487592962814875</v>
       </c>
       <c r="B24">
-        <v>2.25</v>
+        <v>39.90435825669728</v>
       </c>
       <c r="C24">
-        <v>18.5627450980392</v>
+        <v>32.23408636545436</v>
       </c>
       <c r="D24">
         <v>4096</v>
@@ -701,13 +701,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>0.4211</v>
+        <v>1.071297719087635</v>
       </c>
       <c r="B25">
-        <v>2.25</v>
+        <v>41.99715886354534</v>
       </c>
       <c r="C25">
-        <v>18.56569999999997</v>
+        <v>32.23607442977248</v>
       </c>
       <c r="D25">
         <v>4096</v>
@@ -715,13 +715,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>0.4297450980392156</v>
+        <v>1.409198720511795</v>
       </c>
       <c r="B26">
-        <v>2.25</v>
+        <v>41.36209516193515</v>
       </c>
       <c r="C26">
-        <v>18.56137254901959</v>
+        <v>32.29418632546994</v>
       </c>
       <c r="D26">
         <v>8192</v>
@@ -729,13 +729,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>0.4320000000000001</v>
+        <v>1.215294517807123</v>
       </c>
       <c r="B27">
-        <v>2.2075</v>
+        <v>41.33109243697488</v>
       </c>
       <c r="C27">
-        <v>18.56199999999997</v>
+        <v>32.28069627851152</v>
       </c>
       <c r="D27">
         <v>8192</v>
@@ -743,13 +743,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>0.4261960784313725</v>
+        <v>2.110838464614154</v>
       </c>
       <c r="B28">
-        <v>2.25</v>
+        <v>43.59676129548185</v>
       </c>
       <c r="C28">
-        <v>18.56294117647059</v>
+        <v>32.64483406637325</v>
       </c>
       <c r="D28">
         <v>16384</v>
@@ -757,13 +757,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>0.41979</v>
+        <v>2.372737895158063</v>
       </c>
       <c r="B29">
-        <v>2.25</v>
+        <v>44.23641456582636</v>
       </c>
       <c r="C29">
-        <v>18.56309999999998</v>
+        <v>32.67747498999572</v>
       </c>
       <c r="D29">
         <v>16384</v>
@@ -771,13 +771,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>0.4505686274509804</v>
+        <v>2.06822231107557</v>
       </c>
       <c r="B30">
-        <v>2.25</v>
+        <v>43.36697321071559</v>
       </c>
       <c r="C30">
-        <v>18.56431372549017</v>
+        <v>32.9209556177528</v>
       </c>
       <c r="D30">
         <v>32768</v>
@@ -785,13 +785,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>0.45303</v>
+        <v>2.117237294917967</v>
       </c>
       <c r="B31">
-        <v>2.45</v>
+        <v>43.0549819927971</v>
       </c>
       <c r="C31">
-        <v>18.56329999999996</v>
+        <v>32.80115646258493</v>
       </c>
       <c r="D31">
         <v>32768</v>
